--- a/test_results/algo2results.xlsx
+++ b/test_results/algo2results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpvan\Documents\School\Third Year\320\Project\320-Algorithms-Project\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B824B580-A08A-4221-910D-1A676259EF71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7009F68A-C4C5-43C1-859D-9ADB3F0279DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8221BE96-5C3E-47AA-BF90-AC8F560E9B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8221BE96-5C3E-47AA-BF90-AC8F560E9B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>n</t>
   </si>
@@ -53,12 +53,33 @@
   <si>
     <t>log(n)^2</t>
   </si>
+  <si>
+    <t>Algo 2</t>
+  </si>
+  <si>
+    <t>TVC-&gt; TWF</t>
+  </si>
+  <si>
+    <t>BET -&gt; EYW</t>
+  </si>
+  <si>
+    <t>INL -&gt; DUT</t>
+  </si>
+  <si>
+    <t>DUT -&gt;PQI</t>
+  </si>
+  <si>
+    <t>SIT -&gt; LRD</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +93,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -119,12 +166,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -251,31 +313,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.7475999999999994E-2</c:v>
+                  <c:v>2.9725999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6347999999999999E-2</c:v>
+                  <c:v>4.9293999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14999599999999999</c:v>
+                  <c:v>0.1960084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22547800000000001</c:v>
+                  <c:v>0.38117600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38635599999999998</c:v>
+                  <c:v>0.82891999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86854799999999999</c:v>
+                  <c:v>2.3179219999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.360576</c:v>
+                  <c:v>4.2623833299999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5814400000000002</c:v>
+                  <c:v>15.697851999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5768399999999998</c:v>
+                  <c:v>29.143339999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>47.284551800000003</c:v>
@@ -1217,31 +1279,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.7475999999999994E-2</c:v>
+                  <c:v>2.9725999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6347999999999999E-2</c:v>
+                  <c:v>4.9293999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14999599999999999</c:v>
+                  <c:v>0.1960084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22547800000000001</c:v>
+                  <c:v>0.38117600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38635599999999998</c:v>
+                  <c:v>0.82891999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86854799999999999</c:v>
+                  <c:v>2.3179219999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.360576</c:v>
+                  <c:v>4.2623833299999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5814400000000002</c:v>
+                  <c:v>15.697851999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5768399999999998</c:v>
+                  <c:v>29.143339999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>47.284551800000003</c:v>
@@ -1256,6 +1318,138 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2C8-4CAE-B9BF-C84D8F0CDBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log(n)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>513778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.483059977871669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.478011171176044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.75334734645438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.60342350968682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.599738536992792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.970785589723366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.931568569324174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.253496664211539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.253496664211539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.838459164932694</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.253496664211539</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2C8-4CAE-B9BF-C84D8F0CDBE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1361,37 +1555,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>155.82678641114143</c:v>
+                  <c:v>77.913393205570713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181.65678513034624</c:v>
+                  <c:v>90.828392565173118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248.16795261804126</c:v>
+                  <c:v>124.08397630902063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275.67367224202098</c:v>
+                  <c:v>137.83683612101049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>309.75079657050918</c:v>
+                  <c:v>154.87539828525459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>359.89070589125572</c:v>
+                  <c:v>179.94535294562786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>397.26742563367128</c:v>
+                  <c:v>198.63371281683564</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>451.71112045565104</c:v>
+                  <c:v>225.85556022782552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>495.21811378407409</c:v>
+                  <c:v>247.60905689203705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>521.59521702829818</c:v>
+                  <c:v>260.79760851414909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>540.7251071124972</c:v>
+                  <c:v>270.3625535562486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,6 +1844,985 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>nlog(n)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>5725</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11410</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>55237</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>99570</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>198632</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>513778</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5000000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7500000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2:$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>21513.264686043272</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>46293.629202811833</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>261946.56311656427</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>497663.65545476147</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1052362.1117688545</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2934070.8167999578</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15994850.021680094</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>33494850.021680094</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>51562959.475437753</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>70000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E2C8-4CAE-B9BF-C84D8F0CDBE8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="317815872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="317815040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="317815040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="317815872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>513778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.9725999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9293999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1960084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38117600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82891999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3179219999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2623833299999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.697851999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.143339999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.284551800000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.236311999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9932-4BB6-8C43-7EC3809D10BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log(n)^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>513778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>77.913393205570713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.828392565173118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124.08397630902063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.83683612101049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.87539828525459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179.94535294562786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198.63371281683564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225.85556022782552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>247.60905689203705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>260.79760851414909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270.3625535562486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9932-4BB6-8C43-7EC3809D10BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="317815872"/>
+        <c:axId val="317815040"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>5725</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11410</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>55237</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>99570</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>198632</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>513778</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5000000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7500000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-9932-4BB6-8C43-7EC3809D10BA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>n^2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>5725</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11410</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>55237</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>99570</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>198632</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>513778</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5000000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7500000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2:$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>32775625</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>130188100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3051126169</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9914184900</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>39454671424</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>263967833284</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6250000000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>25000000000000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>56250000000000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>100000000000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-9932-4BB6-8C43-7EC3809D10BA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
                 <c:tx>
@@ -1792,7 +2965,7 @@
                 <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-E2C8-4CAE-B9BF-C84D8F0CDBE8}"/>
+                    <c16:uniqueId val="{00000006-9932-4BB6-8C43-7EC3809D10BA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1941,7 +3114,7 @@
                 <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-E2C8-4CAE-B9BF-C84D8F0CDBE8}"/>
+                    <c16:uniqueId val="{00000007-9932-4BB6-8C43-7EC3809D10BA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2303,6 +3476,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3335,20 +4548,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3375,16 +5104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3406,6 +5135,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99C5695-F25F-4079-B951-A6CED4A93F97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3711,16 +5478,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC10567-20B3-44CE-A868-432D1AB62BAA}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3748,7 +5515,7 @@
         <v>5725</v>
       </c>
       <c r="B2" s="1">
-        <v>6.7475999999999994E-2</v>
+        <v>2.9725999999999999E-2</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C12" si="0">A2 * A2</f>
@@ -3763,8 +5530,8 @@
         <v>21513.264686043272</v>
       </c>
       <c r="F2">
-        <f>POWER(LOG(A2,2),2)</f>
-        <v>155.82678641114143</v>
+        <f>0.5 * POWER(LOG(A2,2),2)</f>
+        <v>77.913393205570713</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3772,7 +5539,7 @@
         <v>11410</v>
       </c>
       <c r="B3" s="1">
-        <v>7.6347999999999999E-2</v>
+        <v>4.9293999999999998E-2</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
@@ -3787,8 +5554,8 @@
         <v>46293.629202811833</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="3">POWER(LOG(A3,2),2)</f>
-        <v>181.65678513034624</v>
+        <f t="shared" ref="F3:F12" si="3">0.5 * POWER(LOG(A3,2),2)</f>
+        <v>90.828392565173118</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3796,7 +5563,7 @@
         <v>55237</v>
       </c>
       <c r="B4" s="1">
-        <v>0.14999599999999999</v>
+        <v>0.1960084</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -3812,7 +5579,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
-        <v>248.16795261804126</v>
+        <v>124.08397630902063</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3820,7 +5587,7 @@
         <v>99570</v>
       </c>
       <c r="B5" s="1">
-        <v>0.22547800000000001</v>
+        <v>0.38117600000000001</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -3836,7 +5603,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>275.67367224202098</v>
+        <v>137.83683612101049</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3844,7 +5611,7 @@
         <v>198632</v>
       </c>
       <c r="B6" s="1">
-        <v>0.38635599999999998</v>
+        <v>0.82891999999999999</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -3860,7 +5627,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>309.75079657050918</v>
+        <v>154.87539828525459</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3868,7 +5635,7 @@
         <v>513778</v>
       </c>
       <c r="B7" s="1">
-        <v>0.86854799999999999</v>
+        <v>2.3179219999999998</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -3884,7 +5651,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>359.89070589125572</v>
+        <v>179.94535294562786</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3892,7 +5659,7 @@
         <v>1000000</v>
       </c>
       <c r="B8" s="1">
-        <v>1.360576</v>
+        <v>4.2623833299999996</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -3908,7 +5675,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>397.26742563367128</v>
+        <v>198.63371281683564</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3916,7 +5683,7 @@
         <v>2500000</v>
       </c>
       <c r="B9" s="2">
-        <v>3.5814400000000002</v>
+        <v>15.697851999999999</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -3932,7 +5699,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>451.71112045565104</v>
+        <v>225.85556022782552</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,7 +5707,7 @@
         <v>5000000</v>
       </c>
       <c r="B10" s="2">
-        <v>6.5768399999999998</v>
+        <v>29.143339999999998</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -3956,7 +5723,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>495.21811378407409</v>
+        <v>247.60905689203705</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3980,7 +5747,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>521.59521702829818</v>
+        <v>260.79760851414909</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4004,7 +5771,288 @@
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>540.7251071124972</v>
+        <v>270.3625535562486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7">
+        <v>5725</v>
+      </c>
+      <c r="C24" s="7">
+        <v>11410</v>
+      </c>
+      <c r="D24" s="7">
+        <v>55237</v>
+      </c>
+      <c r="E24" s="7">
+        <v>99570</v>
+      </c>
+      <c r="F24" s="7">
+        <v>198632</v>
+      </c>
+      <c r="G24" s="7">
+        <v>513778</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="J24" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="K24" s="7">
+        <v>7500000</v>
+      </c>
+      <c r="L24" s="7">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.0509999999999999E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.0860000000000002E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.18751000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.71052000000000004</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.0849000000000002</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4.4770300000000001</v>
+      </c>
+      <c r="I25" s="1">
+        <v>13.1998</v>
+      </c>
+      <c r="J25" s="1">
+        <v>22.932400000000001</v>
+      </c>
+      <c r="K25" s="1">
+        <v>56.16478</v>
+      </c>
+      <c r="L25" s="1">
+        <v>70.757999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.3910000000000003E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.4850000000000003E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.22792999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.36629</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.77493000000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.8094700000000001</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4.1853800000000003</v>
+      </c>
+      <c r="I26" s="1">
+        <v>14.163360000000001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>24.530899999999999</v>
+      </c>
+      <c r="K26" s="1">
+        <v>35.566279999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>50.801900000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.092E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.5870000000000001E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.16755200000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.43296000000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.95025000000000004</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.8776000000000002</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4.1247400000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>14.1997</v>
+      </c>
+      <c r="J27" s="1">
+        <v>24.525300000000001</v>
+      </c>
+      <c r="K27" s="1">
+        <v>35.172719999999998</v>
+      </c>
+      <c r="L27" s="1">
+        <v>79.352599999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.3390000000000001E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.4850000000000003E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.18065000000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.37507000000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.3792800000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6.1434199999999999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>12.8896</v>
+      </c>
+      <c r="J28" s="1">
+        <v>37.660899999999998</v>
+      </c>
+      <c r="K28" s="1">
+        <v>43.606479</v>
+      </c>
+      <c r="L28" s="1">
+        <v>80.955560000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4.0039999999999999E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.37275999999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.7419</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.4383599999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6.8788</v>
+      </c>
+      <c r="I29" s="1">
+        <v>24.036799999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>36.0672</v>
+      </c>
+      <c r="K29" s="1">
+        <v>65.912499999999994</v>
+      </c>
+      <c r="L29" s="5">
+        <v>49.313499999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.9725999999999999E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4.9293999999999998E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.1960084</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.38117600000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.82891999999999999</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.3179219999999998</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4.2623833329999998</v>
+      </c>
+      <c r="I30" s="1">
+        <v>15.697851999999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>29.143339999999998</v>
+      </c>
+      <c r="K30" s="1">
+        <v>47.284551800000003</v>
+      </c>
+      <c r="L30" s="1">
+        <v>66.236311999999998</v>
       </c>
     </row>
   </sheetData>
